--- a/StanfordMuseum/Main/pvox96/pvox96_mse_report.xlsx
+++ b/StanfordMuseum/Main/pvox96/pvox96_mse_report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PNEE-data\StanfordMuseum\Main\pvox96\"/>
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -426,6 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
